--- a/ADMON_DEL_PROYECTO/BITACORAS/2016/SEP/BITACORA_SEP.xlsx
+++ b/ADMON_DEL_PROYECTO/BITACORAS/2016/SEP/BITACORA_SEP.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="16925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\TRABAJOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SUPERVISOR_PC\Documents\GitHub\Hospiplant\ADMON_DEL_PROYECTO\BITACORAS\2016\SEP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="8895" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="510" windowWidth="19815" windowHeight="8895"/>
   </bookViews>
   <sheets>
     <sheet name="Datos" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="80">
   <si>
     <t>Periodo:</t>
   </si>
@@ -211,9 +211,6 @@
     <t>Programación de aplicaciones</t>
   </si>
   <si>
-    <t>Healthy Plants</t>
-  </si>
-  <si>
     <t>Contreras Ortiz Jose Manuel</t>
   </si>
   <si>
@@ -366,11 +363,17 @@
       <t>Cronograma de Actividades</t>
     </r>
   </si>
+  <si>
+    <t>Hospiplant</t>
+  </si>
+  <si>
+    <t>Valencia Caballero Ana Fabiola</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="17">
     <font>
       <sz val="11"/>
@@ -474,7 +477,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -544,6 +547,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -900,7 +909,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -998,11 +1007,30 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1016,12 +1044,33 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1029,13 +1078,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1047,20 +1102,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1071,14 +1135,11 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1101,76 +1162,26 @@
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1430,23 +1441,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1482,23 +1476,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1677,8 +1654,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L999"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:K4"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -1703,44 +1680,44 @@
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="2:12" ht="15" customHeight="1">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="40"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="48"/>
       <c r="L2" s="1"/>
     </row>
     <row r="3" spans="2:12" ht="30.75" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="43"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="51"/>
       <c r="L3" s="1"/>
     </row>
     <row r="4" spans="2:12" ht="27" customHeight="1" thickBot="1">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="46"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="54"/>
       <c r="L4" s="1"/>
     </row>
     <row r="5" spans="2:12">
@@ -1756,13 +1733,13 @@
       <c r="C6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="87" t="s">
+      <c r="D6" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58"/>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1772,13 +1749,13 @@
       <c r="C7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="87" t="s">
+      <c r="D7" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58"/>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1788,13 +1765,13 @@
       <c r="C8" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="87" t="s">
+      <c r="D8" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1804,13 +1781,13 @@
       <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="87" t="s">
+      <c r="D9" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
+      <c r="E9" s="58"/>
+      <c r="F9" s="58"/>
+      <c r="G9" s="58"/>
+      <c r="H9" s="58"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1820,13 +1797,13 @@
       <c r="C10" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="49">
+      <c r="D10" s="60">
         <v>3</v>
       </c>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
+      <c r="E10" s="58"/>
+      <c r="F10" s="58"/>
+      <c r="G10" s="58"/>
+      <c r="H10" s="58"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1836,13 +1813,13 @@
       <c r="C11" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="87" t="s">
-        <v>51</v>
+      <c r="D11" s="57" t="s">
+        <v>78</v>
       </c>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
+      <c r="E11" s="58"/>
+      <c r="F11" s="58"/>
+      <c r="G11" s="58"/>
+      <c r="H11" s="58"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1863,11 +1840,11 @@
       <c r="C13" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
-      <c r="H13" s="48"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="56"/>
+      <c r="G13" s="56"/>
+      <c r="H13" s="56"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1877,13 +1854,13 @@
       <c r="C14" s="5">
         <v>1</v>
       </c>
-      <c r="D14" s="88" t="s">
-        <v>52</v>
+      <c r="D14" s="44" t="s">
+        <v>51</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
+      <c r="E14" s="45"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="45"/>
+      <c r="H14" s="45"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1893,13 +1870,13 @@
       <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
+      <c r="E15" s="45"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="45"/>
+      <c r="H15" s="45"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1909,13 +1886,13 @@
       <c r="C16" s="5">
         <v>3</v>
       </c>
-      <c r="D16" s="88" t="s">
-        <v>53</v>
+      <c r="D16" s="44" t="s">
+        <v>52</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
+      <c r="E16" s="45"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="45"/>
+      <c r="H16" s="45"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1925,13 +1902,13 @@
       <c r="C17" s="5">
         <v>4</v>
       </c>
-      <c r="D17" s="88" t="s">
-        <v>54</v>
+      <c r="D17" s="44" t="s">
+        <v>53</v>
       </c>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
+      <c r="H17" s="45"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1941,21 +1918,29 @@
       <c r="C18" s="5">
         <v>5</v>
       </c>
-      <c r="D18" s="88" t="s">
-        <v>55</v>
+      <c r="D18" s="44" t="s">
+        <v>54</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
     </row>
     <row r="19" spans="2:12">
       <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
+      <c r="C19" s="5">
+        <v>6</v>
+      </c>
+      <c r="D19" s="103" t="s">
+        <v>79</v>
+      </c>
+      <c r="E19" s="104"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="104"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -9866,40 +9851,40 @@
     </row>
     <row r="3" spans="1:10" ht="15" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="89" t="s">
-        <v>56</v>
+      <c r="B3" s="61" t="s">
+        <v>55</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="40"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="48"/>
       <c r="J3" s="6"/>
     </row>
     <row r="4" spans="1:10" ht="34.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="41"/>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="43"/>
+      <c r="B4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="51"/>
       <c r="J4" s="6"/>
     </row>
     <row r="5" spans="1:10" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="44"/>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="52"/>
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="54"/>
       <c r="J5" s="6"/>
     </row>
     <row r="6" spans="1:10">
@@ -9965,13 +9950,13 @@
         <v>16</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
-      <c r="G9" s="90" t="s">
+      <c r="G9" s="37" t="s">
         <v>41</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I9" s="13"/>
     </row>
@@ -9990,12 +9975,12 @@
         <v>16</v>
       </c>
       <c r="F10" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="G10" s="91" t="s">
-        <v>59</v>
-      </c>
-      <c r="H10" s="92" t="s">
+      <c r="H10" s="39" t="s">
         <v>44</v>
       </c>
       <c r="I10" s="13"/>
@@ -10011,7 +9996,7 @@
       <c r="D11" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="92" t="s">
+      <c r="E11" s="39" t="s">
         <v>16</v>
       </c>
       <c r="F11" s="33" t="s">
@@ -10020,8 +10005,8 @@
       <c r="G11" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="H11" s="92" t="s">
-        <v>54</v>
+      <c r="H11" s="39" t="s">
+        <v>53</v>
       </c>
       <c r="I11" s="13"/>
     </row>
@@ -20070,13 +20055,13 @@
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Daniel\Downloads\TRABAJOS\[Bitacora-3Parcial -.xlsx]Hoja3'!#REF!</xm:f>
+            <xm:f>[1]Hoja3!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>D9:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
-            <xm:f>'C:\Users\Daniel\Downloads\TRABAJOS\[Bitacora-3Parcial -.xlsx]Hoja3'!#REF!</xm:f>
+            <xm:f>[1]Hoja3!#REF!</xm:f>
           </x14:formula1>
           <xm:sqref>E9:E10</xm:sqref>
         </x14:dataValidation>
@@ -20090,8 +20075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:U996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:U4"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.140625" defaultRowHeight="15" customHeight="1"/>
@@ -20129,72 +20114,72 @@
       <c r="U1" s="1"/>
     </row>
     <row r="2" spans="2:21" ht="34.5" customHeight="1">
-      <c r="B2" s="102" t="s">
-        <v>78</v>
+      <c r="B2" s="84" t="s">
+        <v>77</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-      <c r="H2" s="39"/>
-      <c r="I2" s="39"/>
-      <c r="J2" s="39"/>
-      <c r="K2" s="39"/>
-      <c r="L2" s="39"/>
-      <c r="M2" s="39"/>
-      <c r="N2" s="39"/>
-      <c r="O2" s="39"/>
-      <c r="P2" s="39"/>
-      <c r="Q2" s="39"/>
-      <c r="R2" s="39"/>
-      <c r="S2" s="39"/>
-      <c r="T2" s="39"/>
-      <c r="U2" s="40"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="48"/>
     </row>
     <row r="3" spans="2:21" ht="33.75" customHeight="1">
-      <c r="B3" s="41"/>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="43"/>
+      <c r="B3" s="49"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="51"/>
     </row>
     <row r="4" spans="2:21" ht="15.75" customHeight="1">
-      <c r="B4" s="44"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
-      <c r="J4" s="45"/>
-      <c r="K4" s="45"/>
-      <c r="L4" s="45"/>
-      <c r="M4" s="45"/>
-      <c r="N4" s="45"/>
-      <c r="O4" s="45"/>
-      <c r="P4" s="45"/>
-      <c r="Q4" s="45"/>
-      <c r="R4" s="45"/>
-      <c r="S4" s="45"/>
-      <c r="T4" s="45"/>
-      <c r="U4" s="46"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="53"/>
+      <c r="P4" s="53"/>
+      <c r="Q4" s="53"/>
+      <c r="R4" s="53"/>
+      <c r="S4" s="53"/>
+      <c r="T4" s="53"/>
+      <c r="U4" s="54"/>
     </row>
     <row r="5" spans="2:21">
       <c r="B5" s="1"/>
@@ -20219,12 +20204,12 @@
       <c r="U5" s="1"/>
     </row>
     <row r="6" spans="2:21">
-      <c r="B6" s="74" t="s">
+      <c r="B6" s="93" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="E6" s="93" t="s">
-        <v>51</v>
+      <c r="C6" s="50"/>
+      <c r="E6" s="40" t="s">
+        <v>78</v>
       </c>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
@@ -20238,35 +20223,35 @@
       <c r="M6" s="1"/>
       <c r="N6" s="1"/>
       <c r="O6" s="1"/>
-      <c r="P6" s="65">
+      <c r="P6" s="85">
         <v>42673</v>
       </c>
-      <c r="Q6" s="50"/>
-      <c r="R6" s="50"/>
-      <c r="S6" s="50"/>
-      <c r="T6" s="50"/>
-      <c r="U6" s="50"/>
+      <c r="Q6" s="58"/>
+      <c r="R6" s="58"/>
+      <c r="S6" s="58"/>
+      <c r="T6" s="58"/>
+      <c r="U6" s="58"/>
     </row>
     <row r="7" spans="2:21" ht="47.25" customHeight="1">
-      <c r="B7" s="75" t="s">
+      <c r="B7" s="94" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="76"/>
-      <c r="D7" s="94" t="s">
-        <v>61</v>
+      <c r="C7" s="95"/>
+      <c r="D7" s="88" t="s">
+        <v>60</v>
       </c>
-      <c r="E7" s="95"/>
-      <c r="F7" s="95"/>
-      <c r="G7" s="95"/>
-      <c r="H7" s="95"/>
-      <c r="I7" s="95"/>
-      <c r="J7" s="95"/>
-      <c r="K7" s="95"/>
-      <c r="L7" s="95"/>
-      <c r="M7" s="95"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="95"/>
-      <c r="P7" s="95"/>
+      <c r="E7" s="89"/>
+      <c r="F7" s="89"/>
+      <c r="G7" s="89"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
+      <c r="J7" s="89"/>
+      <c r="K7" s="89"/>
+      <c r="L7" s="89"/>
+      <c r="M7" s="89"/>
+      <c r="N7" s="89"/>
+      <c r="O7" s="89"/>
+      <c r="P7" s="89"/>
       <c r="Q7" s="1"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
@@ -20296,43 +20281,43 @@
       <c r="U8" s="1"/>
     </row>
     <row r="9" spans="2:21" ht="18.75" customHeight="1">
-      <c r="B9" s="66" t="s">
+      <c r="B9" s="86" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="77" t="s">
+      <c r="D9" s="63"/>
+      <c r="E9" s="96" t="s">
         <v>24</v>
       </c>
-      <c r="F9" s="79" t="s">
+      <c r="F9" s="97" t="s">
         <v>25</v>
       </c>
-      <c r="G9" s="71" t="s">
+      <c r="G9" s="90" t="s">
         <v>26</v>
       </c>
-      <c r="H9" s="72"/>
-      <c r="I9" s="72"/>
-      <c r="J9" s="72"/>
-      <c r="K9" s="72"/>
-      <c r="L9" s="72"/>
-      <c r="M9" s="72"/>
-      <c r="N9" s="72"/>
-      <c r="O9" s="72"/>
-      <c r="P9" s="72"/>
-      <c r="Q9" s="72"/>
-      <c r="R9" s="72"/>
-      <c r="S9" s="72"/>
-      <c r="T9" s="72"/>
-      <c r="U9" s="73"/>
+      <c r="H9" s="91"/>
+      <c r="I9" s="91"/>
+      <c r="J9" s="91"/>
+      <c r="K9" s="91"/>
+      <c r="L9" s="91"/>
+      <c r="M9" s="91"/>
+      <c r="N9" s="91"/>
+      <c r="O9" s="91"/>
+      <c r="P9" s="91"/>
+      <c r="Q9" s="91"/>
+      <c r="R9" s="91"/>
+      <c r="S9" s="91"/>
+      <c r="T9" s="91"/>
+      <c r="U9" s="92"/>
     </row>
     <row r="10" spans="2:21">
-      <c r="B10" s="53"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="70"/>
-      <c r="E10" s="78"/>
-      <c r="F10" s="78"/>
+      <c r="B10" s="68"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="24">
         <v>1</v>
       </c>
@@ -20380,24 +20365,24 @@
       </c>
     </row>
     <row r="11" spans="2:21">
-      <c r="B11" s="52">
+      <c r="B11" s="67">
         <v>1</v>
       </c>
-      <c r="C11" s="97" t="s">
-        <v>62</v>
+      <c r="C11" s="73" t="s">
+        <v>61</v>
       </c>
-      <c r="D11" s="57"/>
-      <c r="E11" s="99" t="s">
-        <v>70</v>
+      <c r="D11" s="74"/>
+      <c r="E11" s="81" t="s">
+        <v>69</v>
       </c>
       <c r="F11" s="25" t="s">
         <v>27</v>
       </c>
-      <c r="G11" s="100"/>
-      <c r="H11" s="100"/>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
       <c r="I11" s="35"/>
       <c r="J11" s="35"/>
-      <c r="K11" s="96"/>
+      <c r="K11" s="41"/>
       <c r="L11" s="28"/>
       <c r="M11" s="28"/>
       <c r="N11" s="28"/>
@@ -20410,18 +20395,18 @@
       <c r="U11" s="28"/>
     </row>
     <row r="12" spans="2:21">
-      <c r="B12" s="53"/>
-      <c r="C12" s="58"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="51"/>
+      <c r="B12" s="68"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="82"/>
       <c r="F12" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G12" s="35"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="96"/>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43"/>
+      <c r="J12" s="43"/>
+      <c r="K12" s="41"/>
       <c r="L12" s="28"/>
       <c r="M12" s="28"/>
       <c r="N12" s="28"/>
@@ -20434,24 +20419,24 @@
       <c r="U12" s="28"/>
     </row>
     <row r="13" spans="2:21">
-      <c r="B13" s="52">
+      <c r="B13" s="67">
         <v>2</v>
       </c>
-      <c r="C13" s="97" t="s">
-        <v>63</v>
+      <c r="C13" s="73" t="s">
+        <v>62</v>
       </c>
-      <c r="D13" s="54"/>
-      <c r="E13" s="99" t="s">
-        <v>71</v>
+      <c r="D13" s="98"/>
+      <c r="E13" s="81" t="s">
+        <v>70</v>
       </c>
       <c r="F13" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="35"/>
       <c r="H13" s="35"/>
-      <c r="I13" s="100"/>
+      <c r="I13" s="42"/>
       <c r="J13" s="35"/>
-      <c r="K13" s="96"/>
+      <c r="K13" s="41"/>
       <c r="L13" s="28"/>
       <c r="M13" s="28"/>
       <c r="N13" s="28"/>
@@ -20464,18 +20449,18 @@
       <c r="U13" s="28"/>
     </row>
     <row r="14" spans="2:21">
-      <c r="B14" s="53"/>
-      <c r="C14" s="55"/>
-      <c r="D14" s="56"/>
-      <c r="E14" s="51"/>
+      <c r="B14" s="68"/>
+      <c r="C14" s="99"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="82"/>
       <c r="F14" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G14" s="35"/>
       <c r="H14" s="35"/>
-      <c r="I14" s="101"/>
+      <c r="I14" s="43"/>
       <c r="J14" s="35"/>
-      <c r="K14" s="96"/>
+      <c r="K14" s="41"/>
       <c r="L14" s="28"/>
       <c r="M14" s="28"/>
       <c r="N14" s="28"/>
@@ -20488,24 +20473,24 @@
       <c r="U14" s="28"/>
     </row>
     <row r="15" spans="2:21">
-      <c r="B15" s="52">
+      <c r="B15" s="67">
         <v>3</v>
       </c>
-      <c r="C15" s="97" t="s">
-        <v>64</v>
+      <c r="C15" s="73" t="s">
+        <v>63</v>
       </c>
-      <c r="D15" s="57"/>
-      <c r="E15" s="99" t="s">
-        <v>72</v>
+      <c r="D15" s="74"/>
+      <c r="E15" s="81" t="s">
+        <v>71</v>
       </c>
       <c r="F15" s="25" t="s">
         <v>27</v>
       </c>
       <c r="G15" s="35"/>
       <c r="H15" s="35"/>
-      <c r="I15" s="100"/>
+      <c r="I15" s="42"/>
       <c r="J15" s="35"/>
-      <c r="K15" s="96"/>
+      <c r="K15" s="41"/>
       <c r="L15" s="28"/>
       <c r="M15" s="28"/>
       <c r="N15" s="28"/>
@@ -20518,18 +20503,18 @@
       <c r="U15" s="28"/>
     </row>
     <row r="16" spans="2:21">
-      <c r="B16" s="53"/>
-      <c r="C16" s="58"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="51"/>
+      <c r="B16" s="68"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="25" t="s">
         <v>28</v>
       </c>
       <c r="G16" s="35"/>
       <c r="H16" s="35"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="96"/>
+      <c r="I16" s="43"/>
+      <c r="J16" s="43"/>
+      <c r="K16" s="41"/>
       <c r="L16" s="28"/>
       <c r="M16" s="28"/>
       <c r="N16" s="28"/>
@@ -20542,15 +20527,15 @@
       <c r="U16" s="28"/>
     </row>
     <row r="17" spans="2:21">
-      <c r="B17" s="52">
+      <c r="B17" s="67">
         <v>4</v>
       </c>
-      <c r="C17" s="97" t="s">
-        <v>65</v>
+      <c r="C17" s="73" t="s">
+        <v>64</v>
       </c>
-      <c r="D17" s="57"/>
-      <c r="E17" s="99" t="s">
-        <v>73</v>
+      <c r="D17" s="74"/>
+      <c r="E17" s="81" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="25" t="s">
         <v>27</v>
@@ -20559,7 +20544,7 @@
       <c r="H17" s="35"/>
       <c r="I17" s="35"/>
       <c r="J17" s="35"/>
-      <c r="K17" s="96"/>
+      <c r="K17" s="41"/>
       <c r="L17" s="28"/>
       <c r="M17" s="28"/>
       <c r="N17" s="28"/>
@@ -20572,10 +20557,10 @@
       <c r="U17" s="28"/>
     </row>
     <row r="18" spans="2:21">
-      <c r="B18" s="53"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="51"/>
+      <c r="B18" s="68"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="25" t="s">
         <v>28</v>
       </c>
@@ -20583,7 +20568,7 @@
       <c r="H18" s="35"/>
       <c r="I18" s="35"/>
       <c r="J18" s="35"/>
-      <c r="K18" s="96"/>
+      <c r="K18" s="41"/>
       <c r="L18" s="28"/>
       <c r="M18" s="28"/>
       <c r="N18" s="28"/>
@@ -20596,15 +20581,15 @@
       <c r="U18" s="28"/>
     </row>
     <row r="19" spans="2:21">
-      <c r="B19" s="52">
+      <c r="B19" s="67">
         <v>5</v>
       </c>
-      <c r="C19" s="97" t="s">
-        <v>66</v>
+      <c r="C19" s="73" t="s">
+        <v>65</v>
       </c>
-      <c r="D19" s="57"/>
-      <c r="E19" s="99" t="s">
-        <v>74</v>
+      <c r="D19" s="74"/>
+      <c r="E19" s="81" t="s">
+        <v>73</v>
       </c>
       <c r="F19" s="25" t="s">
         <v>27</v>
@@ -20613,7 +20598,7 @@
       <c r="H19" s="35"/>
       <c r="I19" s="35"/>
       <c r="J19" s="35"/>
-      <c r="K19" s="96"/>
+      <c r="K19" s="41"/>
       <c r="L19" s="28"/>
       <c r="M19" s="28"/>
       <c r="N19" s="28"/>
@@ -20626,10 +20611,10 @@
       <c r="U19" s="28"/>
     </row>
     <row r="20" spans="2:21">
-      <c r="B20" s="53"/>
-      <c r="C20" s="58"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="51"/>
+      <c r="B20" s="68"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="82"/>
       <c r="F20" s="25" t="s">
         <v>28</v>
       </c>
@@ -20637,7 +20622,7 @@
       <c r="H20" s="35"/>
       <c r="I20" s="35"/>
       <c r="J20" s="35"/>
-      <c r="K20" s="96"/>
+      <c r="K20" s="41"/>
       <c r="L20" s="28"/>
       <c r="M20" s="28"/>
       <c r="N20" s="28"/>
@@ -20650,15 +20635,15 @@
       <c r="U20" s="28"/>
     </row>
     <row r="21" spans="2:21">
-      <c r="B21" s="52">
+      <c r="B21" s="67">
         <v>6</v>
       </c>
-      <c r="C21" s="97" t="s">
-        <v>67</v>
+      <c r="C21" s="73" t="s">
+        <v>66</v>
       </c>
-      <c r="D21" s="57"/>
-      <c r="E21" s="99" t="s">
-        <v>75</v>
+      <c r="D21" s="74"/>
+      <c r="E21" s="81" t="s">
+        <v>74</v>
       </c>
       <c r="F21" s="25" t="s">
         <v>27</v>
@@ -20667,7 +20652,7 @@
       <c r="H21" s="35"/>
       <c r="I21" s="35"/>
       <c r="J21" s="35"/>
-      <c r="K21" s="96"/>
+      <c r="K21" s="41"/>
       <c r="L21" s="28"/>
       <c r="M21" s="28"/>
       <c r="N21" s="28"/>
@@ -20680,10 +20665,10 @@
       <c r="U21" s="28"/>
     </row>
     <row r="22" spans="2:21">
-      <c r="B22" s="53"/>
-      <c r="C22" s="58"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="51"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="82"/>
       <c r="F22" s="25" t="s">
         <v>28</v>
       </c>
@@ -20691,7 +20676,7 @@
       <c r="H22" s="35"/>
       <c r="I22" s="35"/>
       <c r="J22" s="35"/>
-      <c r="K22" s="96"/>
+      <c r="K22" s="41"/>
       <c r="L22" s="28"/>
       <c r="M22" s="28"/>
       <c r="N22" s="28"/>
@@ -20704,15 +20689,15 @@
       <c r="U22" s="28"/>
     </row>
     <row r="23" spans="2:21">
-      <c r="B23" s="52">
+      <c r="B23" s="67">
         <v>7</v>
       </c>
-      <c r="C23" s="98" t="s">
-        <v>68</v>
+      <c r="C23" s="101" t="s">
+        <v>67</v>
       </c>
-      <c r="D23" s="60"/>
-      <c r="E23" s="99" t="s">
-        <v>76</v>
+      <c r="D23" s="102"/>
+      <c r="E23" s="81" t="s">
+        <v>75</v>
       </c>
       <c r="F23" s="25" t="s">
         <v>27</v>
@@ -20734,10 +20719,10 @@
       <c r="U23" s="28"/>
     </row>
     <row r="24" spans="2:21">
-      <c r="B24" s="53"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="51"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="82"/>
       <c r="F24" s="25" t="s">
         <v>28</v>
       </c>
@@ -20758,15 +20743,15 @@
       <c r="U24" s="28"/>
     </row>
     <row r="25" spans="2:21">
-      <c r="B25" s="52">
+      <c r="B25" s="67">
         <v>8</v>
       </c>
-      <c r="C25" s="83" t="s">
-        <v>69</v>
+      <c r="C25" s="77" t="s">
+        <v>68</v>
       </c>
-      <c r="D25" s="64"/>
-      <c r="E25" s="99" t="s">
-        <v>77</v>
+      <c r="D25" s="70"/>
+      <c r="E25" s="81" t="s">
+        <v>76</v>
       </c>
       <c r="F25" s="25" t="s">
         <v>27</v>
@@ -20788,10 +20773,10 @@
       <c r="U25" s="28"/>
     </row>
     <row r="26" spans="2:21">
-      <c r="B26" s="53"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="51"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="82"/>
       <c r="F26" s="25" t="s">
         <v>28</v>
       </c>
@@ -20812,12 +20797,12 @@
       <c r="U26" s="28"/>
     </row>
     <row r="27" spans="2:21">
-      <c r="B27" s="52">
+      <c r="B27" s="67">
         <v>9</v>
       </c>
-      <c r="C27" s="83"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="82"/>
+      <c r="C27" s="77"/>
+      <c r="D27" s="70"/>
+      <c r="E27" s="78"/>
       <c r="F27" s="25" t="s">
         <v>27</v>
       </c>
@@ -20838,10 +20823,10 @@
       <c r="U27" s="28"/>
     </row>
     <row r="28" spans="2:21">
-      <c r="B28" s="53"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="78"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="79"/>
       <c r="F28" s="25" t="s">
         <v>28</v>
       </c>
@@ -20862,12 +20847,12 @@
       <c r="U28" s="28"/>
     </row>
     <row r="29" spans="2:21">
-      <c r="B29" s="52">
+      <c r="B29" s="67">
         <v>10</v>
       </c>
-      <c r="C29" s="63"/>
-      <c r="D29" s="64"/>
-      <c r="E29" s="82"/>
+      <c r="C29" s="69"/>
+      <c r="D29" s="70"/>
+      <c r="E29" s="78"/>
       <c r="F29" s="25" t="s">
         <v>27</v>
       </c>
@@ -20888,10 +20873,10 @@
       <c r="U29" s="28"/>
     </row>
     <row r="30" spans="2:21">
-      <c r="B30" s="53"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="78"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="79"/>
       <c r="F30" s="25" t="s">
         <v>28</v>
       </c>
@@ -20912,11 +20897,11 @@
       <c r="U30" s="28"/>
     </row>
     <row r="31" spans="2:21">
-      <c r="B31" s="52">
+      <c r="B31" s="67">
         <v>11</v>
       </c>
-      <c r="C31" s="63"/>
-      <c r="D31" s="64"/>
+      <c r="C31" s="69"/>
+      <c r="D31" s="70"/>
       <c r="E31" s="80"/>
       <c r="F31" s="25" t="s">
         <v>27</v>
@@ -20938,10 +20923,10 @@
       <c r="U31" s="28"/>
     </row>
     <row r="32" spans="2:21">
-      <c r="B32" s="53"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="78"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="79"/>
       <c r="F32" s="25" t="s">
         <v>28</v>
       </c>
@@ -20962,11 +20947,11 @@
       <c r="U32" s="28"/>
     </row>
     <row r="33" spans="2:21">
-      <c r="B33" s="52">
+      <c r="B33" s="67">
         <v>12</v>
       </c>
-      <c r="C33" s="63"/>
-      <c r="D33" s="64"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="70"/>
       <c r="E33" s="80"/>
       <c r="F33" s="25" t="s">
         <v>27</v>
@@ -20988,10 +20973,10 @@
       <c r="U33" s="28"/>
     </row>
     <row r="34" spans="2:21">
-      <c r="B34" s="53"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="81"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="83"/>
       <c r="F34" s="25" t="s">
         <v>28</v>
       </c>
@@ -21012,11 +20997,11 @@
       <c r="U34" s="28"/>
     </row>
     <row r="35" spans="2:21">
-      <c r="B35" s="52">
+      <c r="B35" s="67">
         <v>13</v>
       </c>
-      <c r="C35" s="83"/>
-      <c r="D35" s="64"/>
+      <c r="C35" s="77"/>
+      <c r="D35" s="70"/>
       <c r="E35" s="80"/>
       <c r="F35" s="25" t="s">
         <v>27</v>
@@ -21038,10 +21023,10 @@
       <c r="U35" s="28"/>
     </row>
     <row r="36" spans="2:21">
-      <c r="B36" s="53"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="62"/>
-      <c r="E36" s="78"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="79"/>
       <c r="F36" s="25" t="s">
         <v>28</v>
       </c>
@@ -21062,7 +21047,7 @@
       <c r="U36" s="28"/>
     </row>
     <row r="37" spans="2:21">
-      <c r="B37" s="52">
+      <c r="B37" s="67">
         <v>14</v>
       </c>
       <c r="E37" s="80"/>
@@ -21086,8 +21071,8 @@
       <c r="U37" s="28"/>
     </row>
     <row r="38" spans="2:21">
-      <c r="B38" s="53"/>
-      <c r="E38" s="78"/>
+      <c r="B38" s="68"/>
+      <c r="E38" s="79"/>
       <c r="F38" s="25" t="s">
         <v>28</v>
       </c>
@@ -21108,11 +21093,11 @@
       <c r="U38" s="28"/>
     </row>
     <row r="39" spans="2:21">
-      <c r="B39" s="52">
+      <c r="B39" s="67">
         <v>15</v>
       </c>
-      <c r="C39" s="85"/>
-      <c r="D39" s="68"/>
+      <c r="C39" s="66"/>
+      <c r="D39" s="63"/>
       <c r="E39" s="80"/>
       <c r="F39" s="25" t="s">
         <v>27</v>
@@ -21134,10 +21119,10 @@
       <c r="U39" s="28"/>
     </row>
     <row r="40" spans="2:21">
-      <c r="B40" s="53"/>
-      <c r="C40" s="69"/>
-      <c r="D40" s="70"/>
-      <c r="E40" s="78"/>
+      <c r="B40" s="68"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="79"/>
       <c r="F40" s="25" t="s">
         <v>28</v>
       </c>
@@ -21158,11 +21143,11 @@
       <c r="U40" s="28"/>
     </row>
     <row r="41" spans="2:21">
-      <c r="B41" s="52">
+      <c r="B41" s="67">
         <v>16</v>
       </c>
-      <c r="C41" s="84"/>
-      <c r="D41" s="68"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="63"/>
       <c r="E41" s="80"/>
       <c r="F41" s="25" t="s">
         <v>27</v>
@@ -21184,10 +21169,10 @@
       <c r="U41" s="28"/>
     </row>
     <row r="42" spans="2:21">
-      <c r="B42" s="53"/>
-      <c r="C42" s="69"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="78"/>
+      <c r="B42" s="68"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="79"/>
       <c r="F42" s="25" t="s">
         <v>28</v>
       </c>
@@ -21208,11 +21193,11 @@
       <c r="U42" s="28"/>
     </row>
     <row r="43" spans="2:21">
-      <c r="B43" s="52">
+      <c r="B43" s="67">
         <v>17</v>
       </c>
-      <c r="C43" s="84"/>
-      <c r="D43" s="68"/>
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
       <c r="E43" s="80"/>
       <c r="F43" s="25" t="s">
         <v>27</v>
@@ -21234,10 +21219,10 @@
       <c r="U43" s="28"/>
     </row>
     <row r="44" spans="2:21">
-      <c r="B44" s="53"/>
-      <c r="C44" s="69"/>
-      <c r="D44" s="70"/>
-      <c r="E44" s="78"/>
+      <c r="B44" s="68"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="79"/>
       <c r="F44" s="25" t="s">
         <v>28</v>
       </c>
@@ -42203,12 +42188,44 @@
     </row>
   </sheetData>
   <mergeCells count="60">
-    <mergeCell ref="C43:D44"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="C41:D42"/>
-    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C23:D24"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="C25:D26"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B2:U4"/>
+    <mergeCell ref="P6:U6"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:D10"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="G9:U9"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="C29:D30"/>
@@ -42225,44 +42242,12 @@
     <mergeCell ref="B33:B34"/>
     <mergeCell ref="C21:D22"/>
     <mergeCell ref="B35:B36"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="B2:U4"/>
-    <mergeCell ref="P6:U6"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:D10"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="G9:U9"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C23:D24"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="C25:D26"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="C41:D42"/>
+    <mergeCell ref="B41:B42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
